--- a/medicine/Handicap/Entreprise_de_travail_adapté/Entreprise_de_travail_adapté.xlsx
+++ b/medicine/Handicap/Entreprise_de_travail_adapté/Entreprise_de_travail_adapté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Entreprise_de_travail_adapt%C3%A9</t>
+          <t>Entreprise_de_travail_adapté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une entreprise de travail adapté (ETA) est, en Belgique francophone, une entreprise d'économie sociale dont la spécificité est de proposer un emploi à titre temporaire ou à long terme prioritairement à des travailleurs handicapés. Ce type d'entreprise prend en compte des conditions particulières qui permettent une activité professionnelle adaptée[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une entreprise de travail adapté (ETA) est, en Belgique francophone, une entreprise d'économie sociale dont la spécificité est de proposer un emploi à titre temporaire ou à long terme prioritairement à des travailleurs handicapés. Ce type d'entreprise prend en compte des conditions particulières qui permettent une activité professionnelle adaptée.
 Les ETA (anciennement dénommées : Ateliers protégés), sont actives dans des domaines variés allant de la production de biens au secteur des services. Leurs productions concernent tous les types d’activités, de l'agriculture ou l’artisanat aux techniques de pointe en passant par la manutention, l’assemblage, le nettoyage et la restauration.
 Bien que la majorité d’entre elles fonctionnent en sous-traitance pour des entreprises clientes, certaines sont autonomes et maîtrisent globalement les processus de production, de la conception à la commercialisation.
 En Belgique francophone, l'agrégation des ETA dépend du niveau régional qui détermine les conditions en fonction desquelles elles sont subventionnées. Les travailleurs handicapés qui y sont employés, touchent un salaire qui ne peut être inférieur au revenu minimum moyen.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Entreprise_de_travail_adapt%C3%A9</t>
+          <t>Entreprise_de_travail_adapté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
